--- a/Projekt2_Liczby_Pierwsze/PrimeNumbersDivisibility/AlgorithmsSpeedTest.xlsx
+++ b/Projekt2_Liczby_Pierwsze/PrimeNumbersDivisibility/AlgorithmsSpeedTest.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Efficiency" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
   <si>
     <t>Prime</t>
   </si>
@@ -70,12 +70,21 @@
   <si>
     <t>Sito6Divi25v2</t>
   </si>
+  <si>
+    <t>List1</t>
+  </si>
+  <si>
+    <t>Array1</t>
+  </si>
+  <si>
+    <t>Dictionary1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +111,14 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -117,7 +134,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -125,11 +142,140 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -150,9 +296,6 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -160,7 +303,51 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -443,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N133"/>
+  <dimension ref="A1:O133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,21 +646,24 @@
     <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="15" max="16" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -508,7 +698,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3">
@@ -540,7 +730,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="11">
         <v>11</v>
       </c>
       <c r="B4">
@@ -572,7 +762,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="11">
         <v>101</v>
       </c>
       <c r="B5">
@@ -604,7 +794,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>1009</v>
       </c>
       <c r="B6">
@@ -636,7 +826,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>10007</v>
       </c>
       <c r="B7">
@@ -668,7 +858,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="11">
         <v>100003</v>
       </c>
       <c r="B8">
@@ -700,7 +890,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="11">
         <v>1000003</v>
       </c>
       <c r="B9">
@@ -732,7 +922,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="11">
         <v>10000019</v>
       </c>
       <c r="B10">
@@ -764,7 +954,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="11">
         <v>100000007</v>
       </c>
       <c r="B11">
@@ -796,7 +986,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12" s="11">
         <v>1000000007</v>
       </c>
       <c r="B12">
@@ -828,7 +1018,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="A13" s="11">
         <v>10000000019</v>
       </c>
       <c r="B13">
@@ -860,7 +1050,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="A14" s="11">
         <v>100000000003</v>
       </c>
       <c r="B14">
@@ -892,7 +1082,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15" s="11">
         <v>1000000000039</v>
       </c>
       <c r="B15">
@@ -924,7 +1114,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="A16" s="11">
         <v>10000000000037</v>
       </c>
       <c r="B16">
@@ -956,7 +1146,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="A17" s="11">
         <v>100000000000031</v>
       </c>
       <c r="B17">
@@ -988,7 +1178,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="A18" s="11">
         <v>1000000000000030</v>
       </c>
       <c r="B18">
@@ -1020,7 +1210,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+      <c r="A19" s="11">
         <v>1E+16</v>
       </c>
       <c r="B19">
@@ -1052,17 +1242,17 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -1077,7 +1267,7 @@
       <c r="D21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="12" t="s">
         <v>4</v>
       </c>
       <c r="F21" s="5" t="s">
@@ -1097,7 +1287,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
+      <c r="A22" s="10">
         <v>1</v>
       </c>
       <c r="B22" s="6"/>
@@ -1121,7 +1311,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
+      <c r="A23" s="10">
         <v>100</v>
       </c>
       <c r="B23" s="1"/>
@@ -1145,7 +1335,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
+      <c r="A24" s="10">
         <v>10000</v>
       </c>
       <c r="B24" s="8"/>
@@ -1169,7 +1359,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
+      <c r="A25" s="10">
         <v>1000000</v>
       </c>
       <c r="B25" s="9"/>
@@ -1193,7 +1383,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
+      <c r="A26" s="10">
         <v>100000000</v>
       </c>
       <c r="B26" s="1"/>
@@ -1217,7 +1407,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
+      <c r="A27" s="10">
         <v>10000000000</v>
       </c>
       <c r="B27" s="7"/>
@@ -1241,7 +1431,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
+      <c r="A28" s="10">
         <v>1000000000000</v>
       </c>
       <c r="B28" s="1"/>
@@ -1265,7 +1455,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
+      <c r="A29" s="10">
         <v>100000000000000</v>
       </c>
       <c r="B29" s="8"/>
@@ -1289,7 +1479,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
+      <c r="A30" s="10">
         <v>1E+16</v>
       </c>
       <c r="B30" s="1"/>
@@ -1313,7 +1503,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
+      <c r="A31" s="10">
         <v>1E+18</v>
       </c>
       <c r="B31" s="1"/>
@@ -1337,19 +1527,19 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>11</v>
       </c>
@@ -1362,320 +1552,382 @@
       <c r="D33" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="I33" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="14" t="s">
+      <c r="J33" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K33" s="14" t="s">
+      <c r="K33" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L33" s="5" t="s">
+      <c r="L33" s="15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
+      <c r="M33" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="N33" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="O33" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
         <v>1</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="1">
-        <v>0</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0</v>
-      </c>
-      <c r="H34" s="1">
-        <v>0</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0</v>
-      </c>
-      <c r="J34" s="1">
-        <v>0</v>
-      </c>
-      <c r="K34" s="1">
-        <v>0</v>
-      </c>
-      <c r="L34" s="1">
-        <v>0</v>
-      </c>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="11">
+      <c r="F34" s="17">
+        <v>0</v>
+      </c>
+      <c r="G34" s="18">
+        <v>0</v>
+      </c>
+      <c r="H34" s="18">
+        <v>0</v>
+      </c>
+      <c r="I34" s="18">
+        <v>0</v>
+      </c>
+      <c r="J34" s="18">
+        <v>0</v>
+      </c>
+      <c r="K34" s="18">
+        <v>0</v>
+      </c>
+      <c r="L34" s="18">
+        <v>0</v>
+      </c>
+      <c r="M34" s="24">
+        <v>0</v>
+      </c>
+      <c r="N34" s="18">
+        <v>0</v>
+      </c>
+      <c r="O34" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
         <v>10</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="1">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0</v>
-      </c>
-      <c r="H35" s="1">
-        <v>0</v>
-      </c>
-      <c r="I35" s="1">
-        <v>0</v>
-      </c>
-      <c r="J35" s="1">
-        <v>0</v>
-      </c>
-      <c r="K35" s="1">
-        <v>0</v>
-      </c>
-      <c r="L35" s="1">
-        <v>0</v>
-      </c>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="11">
+      <c r="F35" s="17">
+        <v>0</v>
+      </c>
+      <c r="G35" s="18">
+        <v>0</v>
+      </c>
+      <c r="H35" s="18">
+        <v>0</v>
+      </c>
+      <c r="I35" s="18">
+        <v>0</v>
+      </c>
+      <c r="J35" s="18">
+        <v>0</v>
+      </c>
+      <c r="K35" s="18">
+        <v>0</v>
+      </c>
+      <c r="L35" s="18">
+        <v>0</v>
+      </c>
+      <c r="M35" s="24">
+        <v>0</v>
+      </c>
+      <c r="N35" s="18">
+        <v>0</v>
+      </c>
+      <c r="O35" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
         <v>100</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="1">
-        <v>0</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0</v>
-      </c>
-      <c r="I36" s="1">
-        <v>0</v>
-      </c>
-      <c r="J36" s="1">
-        <v>0</v>
-      </c>
-      <c r="K36" s="1">
-        <v>0</v>
-      </c>
-      <c r="L36" s="1">
-        <v>0</v>
-      </c>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="11">
+      <c r="F36" s="17">
+        <v>0</v>
+      </c>
+      <c r="G36" s="18">
+        <v>0</v>
+      </c>
+      <c r="H36" s="18">
+        <v>0</v>
+      </c>
+      <c r="I36" s="18">
+        <v>0</v>
+      </c>
+      <c r="J36" s="18">
+        <v>0</v>
+      </c>
+      <c r="K36" s="18">
+        <v>0</v>
+      </c>
+      <c r="L36" s="18">
+        <v>0</v>
+      </c>
+      <c r="M36" s="24">
+        <v>0</v>
+      </c>
+      <c r="N36" s="18">
+        <v>0</v>
+      </c>
+      <c r="O36" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
         <v>1000</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="1">
-        <v>0</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0</v>
-      </c>
-      <c r="J37" s="1">
-        <v>0</v>
-      </c>
-      <c r="K37" s="1">
-        <v>0</v>
-      </c>
-      <c r="L37" s="1">
-        <v>0</v>
-      </c>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="11">
+      <c r="F37" s="17">
+        <v>0</v>
+      </c>
+      <c r="G37" s="18">
+        <v>0</v>
+      </c>
+      <c r="H37" s="18">
+        <v>0</v>
+      </c>
+      <c r="I37" s="18">
+        <v>0</v>
+      </c>
+      <c r="J37" s="18">
+        <v>0</v>
+      </c>
+      <c r="K37" s="18">
+        <v>0</v>
+      </c>
+      <c r="L37" s="18">
+        <v>0</v>
+      </c>
+      <c r="M37" s="24">
+        <v>0</v>
+      </c>
+      <c r="N37" s="18">
+        <v>0</v>
+      </c>
+      <c r="O37" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
         <v>10000</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="1">
-        <v>0</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0</v>
-      </c>
-      <c r="H38" s="1">
-        <v>0</v>
-      </c>
-      <c r="I38" s="1">
-        <v>0</v>
-      </c>
-      <c r="J38" s="1">
-        <v>0</v>
-      </c>
-      <c r="K38" s="1">
-        <v>0</v>
-      </c>
-      <c r="L38" s="1">
-        <v>0</v>
-      </c>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="11">
+      <c r="F38" s="17">
+        <v>0</v>
+      </c>
+      <c r="G38" s="18">
+        <v>0</v>
+      </c>
+      <c r="H38" s="18">
+        <v>0</v>
+      </c>
+      <c r="I38" s="18">
+        <v>0</v>
+      </c>
+      <c r="J38" s="18">
+        <v>0</v>
+      </c>
+      <c r="K38" s="18">
+        <v>0</v>
+      </c>
+      <c r="L38" s="18">
+        <v>0</v>
+      </c>
+      <c r="M38" s="24">
+        <v>0</v>
+      </c>
+      <c r="N38" s="18">
+        <v>1</v>
+      </c>
+      <c r="O38" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
         <v>100000</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="1">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0</v>
-      </c>
-      <c r="H39" s="1">
-        <v>0</v>
-      </c>
-      <c r="I39" s="1">
-        <v>0</v>
-      </c>
-      <c r="J39" s="1">
-        <v>0</v>
-      </c>
-      <c r="K39" s="1">
-        <v>0</v>
-      </c>
-      <c r="L39" s="1">
-        <v>0</v>
-      </c>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="11">
+      <c r="F39" s="17">
+        <v>0</v>
+      </c>
+      <c r="G39" s="18">
+        <v>0</v>
+      </c>
+      <c r="H39" s="18">
+        <v>0</v>
+      </c>
+      <c r="I39" s="18">
+        <v>0</v>
+      </c>
+      <c r="J39" s="18">
+        <v>0</v>
+      </c>
+      <c r="K39" s="18">
+        <v>0</v>
+      </c>
+      <c r="L39" s="18">
+        <v>0</v>
+      </c>
+      <c r="M39" s="24">
+        <v>3</v>
+      </c>
+      <c r="N39" s="18">
+        <v>4</v>
+      </c>
+      <c r="O39" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
         <v>1000000</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="1">
-        <v>0</v>
-      </c>
-      <c r="G40" s="1">
-        <v>0</v>
-      </c>
-      <c r="H40" s="1">
-        <v>0</v>
-      </c>
-      <c r="I40" s="1">
-        <v>0</v>
-      </c>
-      <c r="J40" s="1">
-        <v>0</v>
-      </c>
-      <c r="K40" s="1">
-        <v>0</v>
-      </c>
-      <c r="L40" s="1">
-        <v>0</v>
-      </c>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="11">
+      <c r="F40" s="17">
+        <v>0</v>
+      </c>
+      <c r="G40" s="18">
+        <v>0</v>
+      </c>
+      <c r="H40" s="18">
+        <v>0</v>
+      </c>
+      <c r="I40" s="18">
+        <v>0</v>
+      </c>
+      <c r="J40" s="18">
+        <v>0</v>
+      </c>
+      <c r="K40" s="18">
+        <v>0</v>
+      </c>
+      <c r="L40" s="18">
+        <v>0</v>
+      </c>
+      <c r="M40" s="24">
+        <v>26</v>
+      </c>
+      <c r="N40" s="18">
+        <v>37</v>
+      </c>
+      <c r="O40" s="25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
         <v>10000000</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="1">
-        <v>0</v>
-      </c>
-      <c r="G41" s="1">
-        <v>0</v>
-      </c>
-      <c r="H41" s="1">
-        <v>0</v>
-      </c>
-      <c r="I41" s="1">
-        <v>0</v>
-      </c>
-      <c r="J41" s="1">
-        <v>0</v>
-      </c>
-      <c r="K41" s="1">
-        <v>0</v>
-      </c>
-      <c r="L41" s="1">
-        <v>0</v>
-      </c>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="11">
+      <c r="F41" s="17">
+        <v>0</v>
+      </c>
+      <c r="G41" s="18">
+        <v>0</v>
+      </c>
+      <c r="H41" s="18">
+        <v>0</v>
+      </c>
+      <c r="I41" s="18">
+        <v>0</v>
+      </c>
+      <c r="J41" s="18">
+        <v>0</v>
+      </c>
+      <c r="K41" s="18">
+        <v>0</v>
+      </c>
+      <c r="L41" s="18">
+        <v>0</v>
+      </c>
+      <c r="M41" s="24">
+        <v>78</v>
+      </c>
+      <c r="N41" s="18"/>
+      <c r="O41" s="25"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
         <v>100000000</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="1">
+      <c r="F42" s="17">
         <v>3</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="18">
         <v>3</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42" s="18">
         <v>3</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42" s="18">
         <v>3</v>
       </c>
-      <c r="J42" s="1">
+      <c r="J42" s="18">
         <v>3</v>
       </c>
-      <c r="K42" s="1">
+      <c r="K42" s="18">
         <v>3</v>
       </c>
-      <c r="L42" s="1">
+      <c r="L42" s="18">
         <v>3</v>
       </c>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M42" s="24"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="25"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1000000000</v>
       </c>
@@ -1683,31 +1935,32 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="1">
+      <c r="F43" s="17">
         <v>13</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="18">
         <v>13</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H43" s="18">
         <v>13</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I43" s="18">
         <v>13</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J43" s="18">
         <v>16</v>
       </c>
-      <c r="K43" s="1">
+      <c r="K43" s="18">
         <v>13</v>
       </c>
-      <c r="L43" s="1">
+      <c r="L43" s="18">
         <v>16</v>
       </c>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M43" s="24"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="25"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>10000000000</v>
       </c>
@@ -1715,31 +1968,32 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="1">
+      <c r="F44" s="17">
         <v>36</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44" s="18">
         <v>35</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H44" s="18">
         <v>35</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I44" s="18">
         <v>36</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J44" s="18">
         <v>45</v>
       </c>
-      <c r="K44" s="1">
+      <c r="K44" s="18">
         <v>36</v>
       </c>
-      <c r="L44" s="1">
+      <c r="L44" s="18">
         <v>40</v>
       </c>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M44" s="24"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="25"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>100000000000</v>
       </c>
@@ -1747,31 +2001,32 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="1">
+      <c r="F45" s="17">
         <v>136</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45" s="18">
         <v>136</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H45" s="18">
         <v>136</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I45" s="18">
         <v>139</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J45" s="18">
         <v>139</v>
       </c>
-      <c r="K45" s="1">
+      <c r="K45" s="18">
         <v>140</v>
       </c>
-      <c r="L45" s="1">
+      <c r="L45" s="18">
         <v>143</v>
       </c>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M45" s="24"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="25"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1000000000000</v>
       </c>
@@ -1779,31 +2034,32 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="1">
+      <c r="F46" s="17">
         <v>259</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46" s="18">
         <v>255</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H46" s="18">
         <v>260</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I46" s="18">
         <v>261</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J46" s="18">
         <v>261</v>
       </c>
-      <c r="K46" s="1">
+      <c r="K46" s="18">
         <v>263</v>
       </c>
-      <c r="L46" s="1">
+      <c r="L46" s="18">
         <v>263</v>
       </c>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M46" s="24"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="25"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>10000000000000</v>
       </c>
@@ -1811,31 +2067,32 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="1">
+      <c r="F47" s="17">
         <v>751</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="18">
         <v>739</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47" s="18">
         <v>749</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I47" s="18">
         <v>756</v>
       </c>
-      <c r="J47" s="1">
+      <c r="J47" s="18">
         <v>759</v>
       </c>
-      <c r="K47" s="1">
+      <c r="K47" s="18">
         <v>762</v>
       </c>
-      <c r="L47" s="1">
+      <c r="L47" s="18">
         <v>765</v>
       </c>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M47" s="24"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="25"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>100000000000000</v>
       </c>
@@ -1843,31 +2100,32 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="1">
+      <c r="F48" s="17">
         <v>3178</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48" s="18">
         <v>3129</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H48" s="18">
         <v>3177</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48" s="18">
         <v>3189</v>
       </c>
-      <c r="J48" s="1">
+      <c r="J48" s="18">
         <v>3198</v>
       </c>
-      <c r="K48" s="1">
+      <c r="K48" s="18">
         <v>3217</v>
       </c>
-      <c r="L48" s="1">
+      <c r="L48" s="18">
         <v>3234</v>
       </c>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M48" s="24"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="25"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1000000000000000</v>
       </c>
@@ -1875,31 +2133,32 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="1">
+      <c r="F49" s="17">
         <v>5077</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" s="18">
         <v>5000</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49" s="18">
         <v>5074</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49" s="18">
         <v>5102</v>
       </c>
-      <c r="J49" s="1">
+      <c r="J49" s="18">
         <v>5102</v>
       </c>
-      <c r="K49" s="1">
+      <c r="K49" s="18">
         <v>5147</v>
       </c>
-      <c r="L49" s="1">
+      <c r="L49" s="18">
         <v>5168</v>
       </c>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M49" s="24"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="25"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1E+16</v>
       </c>
@@ -1907,31 +2166,32 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="1">
+      <c r="F50" s="17">
         <v>30211</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50" s="18">
         <v>30189</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50" s="18">
         <v>30231</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I50" s="18">
         <v>30374</v>
       </c>
-      <c r="J50" s="1">
+      <c r="J50" s="18">
         <v>30387</v>
       </c>
-      <c r="K50" s="1">
+      <c r="K50" s="18">
         <v>30582</v>
       </c>
-      <c r="L50" s="1">
+      <c r="L50" s="18">
         <v>30780</v>
       </c>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M50" s="24"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="25"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>1E+17</v>
       </c>
@@ -1939,31 +2199,32 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="1">
+      <c r="F51" s="17">
         <v>146200</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51" s="18">
         <v>146066</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H51" s="18">
         <v>146255</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I51" s="18">
         <v>146626</v>
       </c>
-      <c r="J51" s="1">
+      <c r="J51" s="18">
         <v>146805</v>
       </c>
-      <c r="K51" s="1">
+      <c r="K51" s="18">
         <v>147652</v>
       </c>
-      <c r="L51" s="1">
+      <c r="L51" s="18">
         <v>148502</v>
       </c>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M51" s="24"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="25"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1E+18</v>
       </c>
@@ -1971,367 +2232,382 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="1">
+      <c r="F52" s="19">
         <v>266880</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52" s="20">
         <v>266822</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H52" s="20">
         <v>264799</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I52" s="20">
         <v>267605</v>
       </c>
-      <c r="J52" s="1">
+      <c r="J52" s="20">
         <v>268139</v>
       </c>
-      <c r="K52" s="1">
+      <c r="K52" s="20">
         <v>268949</v>
       </c>
-      <c r="L52" s="1">
+      <c r="L52" s="20">
         <v>271024</v>
       </c>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
+      <c r="M52" s="26"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="28"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="34"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="30"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="29"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="10"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="32"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="10"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="32"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="32"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="10"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="32"/>
+      <c r="N57" s="18"/>
+      <c r="O57" s="32"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="10"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="32"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="32"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="10"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="32"/>
+      <c r="N59" s="18"/>
+      <c r="O59" s="32"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="10"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="32"/>
+      <c r="N60" s="18"/>
+      <c r="O60" s="32"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="10"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="32"/>
+      <c r="N61" s="18"/>
+      <c r="O61" s="32"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="10"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="18"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="32"/>
+      <c r="N62" s="18"/>
+      <c r="O62" s="32"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="10"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="32"/>
+      <c r="N63" s="18"/>
+      <c r="O63" s="32"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="18"/>
+      <c r="M64" s="32"/>
+      <c r="N64" s="18"/>
+      <c r="O64" s="32"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="18"/>
+      <c r="M65" s="32"/>
+      <c r="N65" s="18"/>
+      <c r="O65" s="32"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="32"/>
+      <c r="N66" s="18"/>
+      <c r="O66" s="32"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="18"/>
+      <c r="M67" s="32"/>
+      <c r="N67" s="18"/>
+      <c r="O67" s="32"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="18"/>
+      <c r="L68" s="18"/>
+      <c r="M68" s="32"/>
+      <c r="N68" s="18"/>
+      <c r="O68" s="32"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="18"/>
+      <c r="M69" s="32"/>
+      <c r="N69" s="18"/>
+      <c r="O69" s="32"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="18"/>
+      <c r="L70" s="18"/>
+      <c r="M70" s="32"/>
+      <c r="N70" s="18"/>
+      <c r="O70" s="32"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="18"/>
+      <c r="L71" s="18"/>
+      <c r="M71" s="32"/>
+      <c r="N71" s="18"/>
+      <c r="O71" s="32"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="18"/>
+      <c r="K72" s="18"/>
+      <c r="L72" s="18"/>
+      <c r="M72" s="32"/>
+      <c r="N72" s="18"/>
+      <c r="O72" s="32"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="18"/>
+      <c r="L73" s="18"/>
+      <c r="M73" s="32"/>
+      <c r="N73" s="18"/>
+      <c r="O73" s="32"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2347,7 +2623,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2363,7 +2639,7 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2379,7 +2655,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2395,7 +2671,7 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2411,7 +2687,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2427,7 +2703,7 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3298,6 +3574,166 @@
     <mergeCell ref="B32:J32"/>
   </mergeCells>
   <conditionalFormatting sqref="F31:J31">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30:J30">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29:J29">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28:J28">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52:J52">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F51:J51">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50:J50">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49:J49">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48:J48">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47:J47">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46:J46">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45:J45">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45:L45">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46:L46">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47:L47">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48:L48">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49:L49">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -3307,7 +3743,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:J30">
+  <conditionalFormatting sqref="F50:L50">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -3317,7 +3753,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29:J29">
+  <conditionalFormatting sqref="F51:L51">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -3327,7 +3763,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28:J28">
+  <conditionalFormatting sqref="F52:L52">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -3337,7 +3773,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F52:J52">
+  <conditionalFormatting sqref="F73:J73">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -3347,7 +3783,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F51:J51">
+  <conditionalFormatting sqref="F72:J72">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -3357,7 +3793,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F50:J50">
+  <conditionalFormatting sqref="F71:J71">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -3367,7 +3803,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F49:J49">
+  <conditionalFormatting sqref="F70:J70">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -3377,7 +3813,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F48:J48">
+  <conditionalFormatting sqref="F69:J69">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -3387,7 +3823,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47:J47">
+  <conditionalFormatting sqref="F68:J68">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -3397,7 +3833,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46:J46">
+  <conditionalFormatting sqref="F67:J67">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -3407,7 +3843,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45:J45">
+  <conditionalFormatting sqref="F66:J66">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -3417,7 +3853,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45:L45">
+  <conditionalFormatting sqref="F66:L66">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -3427,7 +3863,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46:L46">
+  <conditionalFormatting sqref="F67:L67">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -3437,7 +3873,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47:L47">
+  <conditionalFormatting sqref="F68:L68">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -3447,7 +3883,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F48:L48">
+  <conditionalFormatting sqref="F69:L69">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3457,7 +3893,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F49:L49">
+  <conditionalFormatting sqref="F70:L70">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -3467,7 +3903,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F50:L50">
+  <conditionalFormatting sqref="F71:L71">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -3477,7 +3913,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F51:L51">
+  <conditionalFormatting sqref="F72:L72">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3487,7 +3923,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F52:L52">
+  <conditionalFormatting sqref="F73:L73">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/Projekt2_Liczby_Pierwsze/PrimeNumbersDivisibility/AlgorithmsSpeedTest.xlsx
+++ b/Projekt2_Liczby_Pierwsze/PrimeNumbersDivisibility/AlgorithmsSpeedTest.xlsx
@@ -24,36 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
   <si>
     <t>Prime</t>
-  </si>
-  <si>
-    <t>Sito /6</t>
-  </si>
-  <si>
-    <t>Sito / 6 - 1</t>
-  </si>
-  <si>
-    <t>Sito / 6 - 2</t>
-  </si>
-  <si>
-    <t>Sito / 6 - 3</t>
-  </si>
-  <si>
-    <t>Sito / 6 Divi 0</t>
-  </si>
-  <si>
-    <t>Sito / 6 Divi 03</t>
-  </si>
-  <si>
-    <t>Sito / 6 Divi 2</t>
-  </si>
-  <si>
-    <t>Sito / 6 Divi 235</t>
-  </si>
-  <si>
-    <t>Sito / 6 Divi 25</t>
   </si>
   <si>
     <t>Sprawdzanie pierwszości liczby pierwszej</t>
@@ -68,9 +41,6 @@
     <t>Czas wyszukania 100 liczb danej wielkości - 5 prób</t>
   </si>
   <si>
-    <t>Sito6Divi25v2</t>
-  </si>
-  <si>
     <t>List1</t>
   </si>
   <si>
@@ -78,6 +48,39 @@
   </si>
   <si>
     <t>Dictionary1</t>
+  </si>
+  <si>
+    <t>Div</t>
+  </si>
+  <si>
+    <t>Div1</t>
+  </si>
+  <si>
+    <t>Div2</t>
+  </si>
+  <si>
+    <t>Div3</t>
+  </si>
+  <si>
+    <t>Div3 - 03</t>
+  </si>
+  <si>
+    <t>Divi3 - 0</t>
+  </si>
+  <si>
+    <t>Divi3 - 2</t>
+  </si>
+  <si>
+    <t>Divi3 - 235</t>
+  </si>
+  <si>
+    <t>Divi3 - 25</t>
+  </si>
+  <si>
+    <t>Divi3 - 25v2</t>
+  </si>
+  <si>
+    <t>Divi3 - 235 - Only</t>
   </si>
 </sst>
 </file>
@@ -134,31 +137,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="8"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -275,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -306,33 +289,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -347,6 +321,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -630,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O133"/>
+  <dimension ref="A1:R133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,53 +628,55 @@
     <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.7109375" customWidth="1"/>
     <col min="14" max="14" width="11.140625" customWidth="1"/>
-    <col min="15" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="A1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1242,48 +1224,48 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
+      <c r="B20" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>9</v>
+      <c r="F21" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="32" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1527,66 +1509,71 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="14" t="s">
+      <c r="G33" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="L33" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="M33" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="N33" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H33" s="15" t="s">
+      <c r="O33" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I33" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J33" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K33" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="L33" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="M33" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="N33" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="O33" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P33" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>1</v>
       </c>
@@ -1594,38 +1581,41 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="17">
-        <v>0</v>
-      </c>
-      <c r="G34" s="18">
-        <v>0</v>
-      </c>
-      <c r="H34" s="18">
-        <v>0</v>
-      </c>
-      <c r="I34" s="18">
-        <v>0</v>
-      </c>
-      <c r="J34" s="18">
-        <v>0</v>
-      </c>
-      <c r="K34" s="18">
-        <v>0</v>
-      </c>
-      <c r="L34" s="18">
-        <v>0</v>
-      </c>
-      <c r="M34" s="24">
-        <v>0</v>
-      </c>
-      <c r="N34" s="18">
-        <v>0</v>
-      </c>
-      <c r="O34" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F34" s="14">
+        <v>0</v>
+      </c>
+      <c r="G34" s="15">
+        <v>0</v>
+      </c>
+      <c r="H34" s="15">
+        <v>0</v>
+      </c>
+      <c r="I34" s="15">
+        <v>0</v>
+      </c>
+      <c r="J34" s="15">
+        <v>0</v>
+      </c>
+      <c r="K34" s="15">
+        <v>0</v>
+      </c>
+      <c r="L34" s="15">
+        <v>0</v>
+      </c>
+      <c r="M34" s="21">
+        <v>0</v>
+      </c>
+      <c r="N34" s="15">
+        <v>0</v>
+      </c>
+      <c r="O34" s="22">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>10</v>
       </c>
@@ -1633,38 +1623,41 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="17">
-        <v>0</v>
-      </c>
-      <c r="G35" s="18">
-        <v>0</v>
-      </c>
-      <c r="H35" s="18">
-        <v>0</v>
-      </c>
-      <c r="I35" s="18">
-        <v>0</v>
-      </c>
-      <c r="J35" s="18">
-        <v>0</v>
-      </c>
-      <c r="K35" s="18">
-        <v>0</v>
-      </c>
-      <c r="L35" s="18">
-        <v>0</v>
-      </c>
-      <c r="M35" s="24">
-        <v>0</v>
-      </c>
-      <c r="N35" s="18">
-        <v>0</v>
-      </c>
-      <c r="O35" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F35" s="14">
+        <v>0</v>
+      </c>
+      <c r="G35" s="15">
+        <v>0</v>
+      </c>
+      <c r="H35" s="15">
+        <v>0</v>
+      </c>
+      <c r="I35" s="15">
+        <v>0</v>
+      </c>
+      <c r="J35" s="15">
+        <v>0</v>
+      </c>
+      <c r="K35" s="15">
+        <v>0</v>
+      </c>
+      <c r="L35" s="15">
+        <v>0</v>
+      </c>
+      <c r="M35" s="21">
+        <v>0</v>
+      </c>
+      <c r="N35" s="15">
+        <v>0</v>
+      </c>
+      <c r="O35" s="22">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>100</v>
       </c>
@@ -1672,38 +1665,41 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="17">
-        <v>0</v>
-      </c>
-      <c r="G36" s="18">
-        <v>0</v>
-      </c>
-      <c r="H36" s="18">
-        <v>0</v>
-      </c>
-      <c r="I36" s="18">
-        <v>0</v>
-      </c>
-      <c r="J36" s="18">
-        <v>0</v>
-      </c>
-      <c r="K36" s="18">
-        <v>0</v>
-      </c>
-      <c r="L36" s="18">
-        <v>0</v>
-      </c>
-      <c r="M36" s="24">
-        <v>0</v>
-      </c>
-      <c r="N36" s="18">
-        <v>0</v>
-      </c>
-      <c r="O36" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F36" s="14">
+        <v>0</v>
+      </c>
+      <c r="G36" s="15">
+        <v>0</v>
+      </c>
+      <c r="H36" s="15">
+        <v>0</v>
+      </c>
+      <c r="I36" s="15">
+        <v>0</v>
+      </c>
+      <c r="J36" s="15">
+        <v>0</v>
+      </c>
+      <c r="K36" s="15">
+        <v>0</v>
+      </c>
+      <c r="L36" s="15">
+        <v>0</v>
+      </c>
+      <c r="M36" s="21">
+        <v>0</v>
+      </c>
+      <c r="N36" s="15">
+        <v>0</v>
+      </c>
+      <c r="O36" s="22">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>1000</v>
       </c>
@@ -1711,38 +1707,41 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="17">
-        <v>0</v>
-      </c>
-      <c r="G37" s="18">
-        <v>0</v>
-      </c>
-      <c r="H37" s="18">
-        <v>0</v>
-      </c>
-      <c r="I37" s="18">
-        <v>0</v>
-      </c>
-      <c r="J37" s="18">
-        <v>0</v>
-      </c>
-      <c r="K37" s="18">
-        <v>0</v>
-      </c>
-      <c r="L37" s="18">
-        <v>0</v>
-      </c>
-      <c r="M37" s="24">
-        <v>0</v>
-      </c>
-      <c r="N37" s="18">
-        <v>0</v>
-      </c>
-      <c r="O37" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F37" s="14">
+        <v>0</v>
+      </c>
+      <c r="G37" s="15">
+        <v>0</v>
+      </c>
+      <c r="H37" s="15">
+        <v>0</v>
+      </c>
+      <c r="I37" s="15">
+        <v>0</v>
+      </c>
+      <c r="J37" s="15">
+        <v>0</v>
+      </c>
+      <c r="K37" s="15">
+        <v>0</v>
+      </c>
+      <c r="L37" s="15">
+        <v>0</v>
+      </c>
+      <c r="M37" s="21">
+        <v>0</v>
+      </c>
+      <c r="N37" s="15">
+        <v>0</v>
+      </c>
+      <c r="O37" s="22">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <v>10000</v>
       </c>
@@ -1750,38 +1749,41 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="17">
-        <v>0</v>
-      </c>
-      <c r="G38" s="18">
-        <v>0</v>
-      </c>
-      <c r="H38" s="18">
-        <v>0</v>
-      </c>
-      <c r="I38" s="18">
-        <v>0</v>
-      </c>
-      <c r="J38" s="18">
-        <v>0</v>
-      </c>
-      <c r="K38" s="18">
-        <v>0</v>
-      </c>
-      <c r="L38" s="18">
-        <v>0</v>
-      </c>
-      <c r="M38" s="24">
-        <v>0</v>
-      </c>
-      <c r="N38" s="18">
+      <c r="F38" s="14">
+        <v>0</v>
+      </c>
+      <c r="G38" s="15">
+        <v>0</v>
+      </c>
+      <c r="H38" s="15">
+        <v>0</v>
+      </c>
+      <c r="I38" s="15">
+        <v>0</v>
+      </c>
+      <c r="J38" s="15">
+        <v>0</v>
+      </c>
+      <c r="K38" s="15">
+        <v>0</v>
+      </c>
+      <c r="L38" s="15">
+        <v>0</v>
+      </c>
+      <c r="M38" s="21">
+        <v>0</v>
+      </c>
+      <c r="N38" s="15">
         <v>1</v>
       </c>
-      <c r="O38" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O38" s="22">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>100000</v>
       </c>
@@ -1789,38 +1791,41 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="17">
-        <v>0</v>
-      </c>
-      <c r="G39" s="18">
-        <v>0</v>
-      </c>
-      <c r="H39" s="18">
-        <v>0</v>
-      </c>
-      <c r="I39" s="18">
-        <v>0</v>
-      </c>
-      <c r="J39" s="18">
-        <v>0</v>
-      </c>
-      <c r="K39" s="18">
-        <v>0</v>
-      </c>
-      <c r="L39" s="18">
-        <v>0</v>
-      </c>
-      <c r="M39" s="24">
+      <c r="F39" s="14">
+        <v>0</v>
+      </c>
+      <c r="G39" s="15">
+        <v>0</v>
+      </c>
+      <c r="H39" s="15">
+        <v>0</v>
+      </c>
+      <c r="I39" s="15">
+        <v>0</v>
+      </c>
+      <c r="J39" s="15">
+        <v>0</v>
+      </c>
+      <c r="K39" s="15">
+        <v>0</v>
+      </c>
+      <c r="L39" s="15">
+        <v>0</v>
+      </c>
+      <c r="M39" s="21">
         <v>3</v>
       </c>
-      <c r="N39" s="18">
+      <c r="N39" s="15">
         <v>4</v>
       </c>
-      <c r="O39" s="25">
+      <c r="O39" s="22">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>1000000</v>
       </c>
@@ -1828,38 +1833,41 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="17">
-        <v>0</v>
-      </c>
-      <c r="G40" s="18">
-        <v>0</v>
-      </c>
-      <c r="H40" s="18">
-        <v>0</v>
-      </c>
-      <c r="I40" s="18">
-        <v>0</v>
-      </c>
-      <c r="J40" s="18">
-        <v>0</v>
-      </c>
-      <c r="K40" s="18">
-        <v>0</v>
-      </c>
-      <c r="L40" s="18">
-        <v>0</v>
-      </c>
-      <c r="M40" s="24">
+      <c r="F40" s="14">
+        <v>0</v>
+      </c>
+      <c r="G40" s="15">
+        <v>0</v>
+      </c>
+      <c r="H40" s="15">
+        <v>0</v>
+      </c>
+      <c r="I40" s="15">
+        <v>0</v>
+      </c>
+      <c r="J40" s="15">
+        <v>0</v>
+      </c>
+      <c r="K40" s="15">
+        <v>0</v>
+      </c>
+      <c r="L40" s="15">
+        <v>0</v>
+      </c>
+      <c r="M40" s="21">
         <v>26</v>
       </c>
-      <c r="N40" s="18">
+      <c r="N40" s="15">
         <v>37</v>
       </c>
-      <c r="O40" s="25">
+      <c r="O40" s="22">
         <v>45</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <v>10000000</v>
       </c>
@@ -1867,34 +1875,37 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="17">
-        <v>0</v>
-      </c>
-      <c r="G41" s="18">
-        <v>0</v>
-      </c>
-      <c r="H41" s="18">
-        <v>0</v>
-      </c>
-      <c r="I41" s="18">
-        <v>0</v>
-      </c>
-      <c r="J41" s="18">
-        <v>0</v>
-      </c>
-      <c r="K41" s="18">
-        <v>0</v>
-      </c>
-      <c r="L41" s="18">
-        <v>0</v>
-      </c>
-      <c r="M41" s="24">
+      <c r="F41" s="14">
+        <v>0</v>
+      </c>
+      <c r="G41" s="15">
+        <v>0</v>
+      </c>
+      <c r="H41" s="15">
+        <v>0</v>
+      </c>
+      <c r="I41" s="15">
+        <v>0</v>
+      </c>
+      <c r="J41" s="15">
+        <v>0</v>
+      </c>
+      <c r="K41" s="15">
+        <v>0</v>
+      </c>
+      <c r="L41" s="15">
+        <v>0</v>
+      </c>
+      <c r="M41" s="21">
         <v>78</v>
       </c>
-      <c r="N41" s="18"/>
-      <c r="O41" s="25"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N41" s="15"/>
+      <c r="O41" s="22"/>
+      <c r="P41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>100000000</v>
       </c>
@@ -1902,32 +1913,35 @@
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="17">
+      <c r="F42" s="14">
         <v>3</v>
       </c>
-      <c r="G42" s="18">
+      <c r="G42" s="15">
         <v>3</v>
       </c>
-      <c r="H42" s="18">
+      <c r="H42" s="15">
         <v>3</v>
       </c>
-      <c r="I42" s="18">
+      <c r="I42" s="15">
         <v>3</v>
       </c>
-      <c r="J42" s="18">
+      <c r="J42" s="15">
         <v>3</v>
       </c>
-      <c r="K42" s="18">
+      <c r="K42" s="15">
         <v>3</v>
       </c>
-      <c r="L42" s="18">
+      <c r="L42" s="15">
         <v>3</v>
       </c>
-      <c r="M42" s="24"/>
-      <c r="N42" s="18"/>
-      <c r="O42" s="25"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M42" s="21"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="22"/>
+      <c r="P42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1000000000</v>
       </c>
@@ -1935,32 +1949,35 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="17">
+      <c r="F43" s="14">
         <v>13</v>
       </c>
-      <c r="G43" s="18">
+      <c r="G43" s="15">
         <v>13</v>
       </c>
-      <c r="H43" s="18">
+      <c r="H43" s="15">
         <v>13</v>
       </c>
-      <c r="I43" s="18">
+      <c r="I43" s="15">
         <v>13</v>
       </c>
-      <c r="J43" s="18">
+      <c r="J43" s="15">
         <v>16</v>
       </c>
-      <c r="K43" s="18">
+      <c r="K43" s="15">
         <v>13</v>
       </c>
-      <c r="L43" s="18">
+      <c r="L43" s="15">
         <v>16</v>
       </c>
-      <c r="M43" s="24"/>
-      <c r="N43" s="18"/>
-      <c r="O43" s="25"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M43" s="21"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="22"/>
+      <c r="P43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>10000000000</v>
       </c>
@@ -1968,32 +1985,35 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="17">
+      <c r="F44" s="14">
         <v>36</v>
       </c>
-      <c r="G44" s="18">
+      <c r="G44" s="15">
         <v>35</v>
       </c>
-      <c r="H44" s="18">
+      <c r="H44" s="15">
         <v>35</v>
       </c>
-      <c r="I44" s="18">
+      <c r="I44" s="15">
         <v>36</v>
       </c>
-      <c r="J44" s="18">
+      <c r="J44" s="15">
         <v>45</v>
       </c>
-      <c r="K44" s="18">
+      <c r="K44" s="15">
         <v>36</v>
       </c>
-      <c r="L44" s="18">
+      <c r="L44" s="15">
         <v>40</v>
       </c>
-      <c r="M44" s="24"/>
-      <c r="N44" s="18"/>
-      <c r="O44" s="25"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M44" s="21"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="22"/>
+      <c r="P44">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>100000000000</v>
       </c>
@@ -2001,32 +2021,35 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="17">
+      <c r="F45" s="14">
         <v>136</v>
       </c>
-      <c r="G45" s="18">
+      <c r="G45" s="15">
         <v>136</v>
       </c>
-      <c r="H45" s="18">
+      <c r="H45" s="15">
         <v>136</v>
       </c>
-      <c r="I45" s="18">
+      <c r="I45" s="15">
         <v>139</v>
       </c>
-      <c r="J45" s="18">
+      <c r="J45" s="15">
         <v>139</v>
       </c>
-      <c r="K45" s="18">
+      <c r="K45" s="15">
         <v>140</v>
       </c>
-      <c r="L45" s="18">
+      <c r="L45" s="15">
         <v>143</v>
       </c>
-      <c r="M45" s="24"/>
-      <c r="N45" s="18"/>
-      <c r="O45" s="25"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M45" s="21"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="22"/>
+      <c r="P45">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1000000000000</v>
       </c>
@@ -2034,32 +2057,35 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="17">
+      <c r="F46" s="14">
         <v>259</v>
       </c>
-      <c r="G46" s="18">
+      <c r="G46" s="15">
         <v>255</v>
       </c>
-      <c r="H46" s="18">
+      <c r="H46" s="15">
         <v>260</v>
       </c>
-      <c r="I46" s="18">
+      <c r="I46" s="15">
         <v>261</v>
       </c>
-      <c r="J46" s="18">
+      <c r="J46" s="15">
         <v>261</v>
       </c>
-      <c r="K46" s="18">
+      <c r="K46" s="15">
         <v>263</v>
       </c>
-      <c r="L46" s="18">
+      <c r="L46" s="15">
         <v>263</v>
       </c>
-      <c r="M46" s="24"/>
-      <c r="N46" s="18"/>
-      <c r="O46" s="25"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M46" s="21"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="22"/>
+      <c r="P46">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>10000000000000</v>
       </c>
@@ -2067,32 +2093,35 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="17">
+      <c r="F47" s="14">
         <v>751</v>
       </c>
-      <c r="G47" s="18">
+      <c r="G47" s="15">
         <v>739</v>
       </c>
-      <c r="H47" s="18">
+      <c r="H47" s="15">
         <v>749</v>
       </c>
-      <c r="I47" s="18">
+      <c r="I47" s="15">
         <v>756</v>
       </c>
-      <c r="J47" s="18">
+      <c r="J47" s="15">
         <v>759</v>
       </c>
-      <c r="K47" s="18">
+      <c r="K47" s="15">
         <v>762</v>
       </c>
-      <c r="L47" s="18">
+      <c r="L47" s="15">
         <v>765</v>
       </c>
-      <c r="M47" s="24"/>
-      <c r="N47" s="18"/>
-      <c r="O47" s="25"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M47" s="21"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="22"/>
+      <c r="P47">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>100000000000000</v>
       </c>
@@ -2100,32 +2129,35 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="17">
+      <c r="F48" s="14">
         <v>3178</v>
       </c>
-      <c r="G48" s="18">
+      <c r="G48" s="15">
         <v>3129</v>
       </c>
-      <c r="H48" s="18">
+      <c r="H48" s="15">
         <v>3177</v>
       </c>
-      <c r="I48" s="18">
+      <c r="I48" s="15">
         <v>3189</v>
       </c>
-      <c r="J48" s="18">
+      <c r="J48" s="15">
         <v>3198</v>
       </c>
-      <c r="K48" s="18">
+      <c r="K48" s="15">
         <v>3217</v>
       </c>
-      <c r="L48" s="18">
+      <c r="L48" s="15">
         <v>3234</v>
       </c>
-      <c r="M48" s="24"/>
-      <c r="N48" s="18"/>
-      <c r="O48" s="25"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M48" s="21"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="22"/>
+      <c r="P48">
+        <v>4366</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1000000000000000</v>
       </c>
@@ -2133,32 +2165,35 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="17">
+      <c r="F49" s="14">
         <v>5077</v>
       </c>
-      <c r="G49" s="18">
+      <c r="G49" s="15">
         <v>5000</v>
       </c>
-      <c r="H49" s="18">
+      <c r="H49" s="15">
         <v>5074</v>
       </c>
-      <c r="I49" s="18">
+      <c r="I49" s="15">
         <v>5102</v>
       </c>
-      <c r="J49" s="18">
+      <c r="J49" s="15">
         <v>5102</v>
       </c>
-      <c r="K49" s="18">
+      <c r="K49" s="15">
         <v>5147</v>
       </c>
-      <c r="L49" s="18">
+      <c r="L49" s="15">
         <v>5168</v>
       </c>
-      <c r="M49" s="24"/>
-      <c r="N49" s="18"/>
-      <c r="O49" s="25"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M49" s="21"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="22"/>
+      <c r="P49">
+        <v>6910</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1E+16</v>
       </c>
@@ -2166,32 +2201,35 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="17">
+      <c r="F50" s="14">
         <v>30211</v>
       </c>
-      <c r="G50" s="18">
+      <c r="G50" s="15">
         <v>30189</v>
       </c>
-      <c r="H50" s="18">
+      <c r="H50" s="15">
         <v>30231</v>
       </c>
-      <c r="I50" s="18">
+      <c r="I50" s="15">
         <v>30374</v>
       </c>
-      <c r="J50" s="18">
+      <c r="J50" s="15">
         <v>30387</v>
       </c>
-      <c r="K50" s="18">
+      <c r="K50" s="15">
         <v>30582</v>
       </c>
-      <c r="L50" s="18">
+      <c r="L50" s="15">
         <v>30780</v>
       </c>
-      <c r="M50" s="24"/>
-      <c r="N50" s="18"/>
-      <c r="O50" s="25"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M50" s="21"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="22"/>
+      <c r="P50">
+        <v>41319</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>1E+17</v>
       </c>
@@ -2199,32 +2237,35 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="17">
+      <c r="F51" s="14">
         <v>146200</v>
       </c>
-      <c r="G51" s="18">
+      <c r="G51" s="15">
         <v>146066</v>
       </c>
-      <c r="H51" s="18">
+      <c r="H51" s="15">
         <v>146255</v>
       </c>
-      <c r="I51" s="18">
+      <c r="I51" s="15">
         <v>146626</v>
       </c>
-      <c r="J51" s="18">
+      <c r="J51" s="15">
         <v>146805</v>
       </c>
-      <c r="K51" s="18">
+      <c r="K51" s="15">
         <v>147652</v>
       </c>
-      <c r="L51" s="18">
+      <c r="L51" s="15">
         <v>148502</v>
       </c>
-      <c r="M51" s="24"/>
-      <c r="N51" s="18"/>
-      <c r="O51" s="25"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M51" s="21"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="22"/>
+      <c r="P51">
+        <v>199280</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1E+18</v>
       </c>
@@ -2232,227 +2273,230 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="19">
+      <c r="F52" s="16">
         <v>266880</v>
       </c>
-      <c r="G52" s="20">
+      <c r="G52" s="17">
         <v>266822</v>
       </c>
-      <c r="H52" s="20">
+      <c r="H52" s="17">
         <v>264799</v>
       </c>
-      <c r="I52" s="20">
+      <c r="I52" s="17">
         <v>267605</v>
       </c>
-      <c r="J52" s="20">
+      <c r="J52" s="17">
         <v>268139</v>
       </c>
-      <c r="K52" s="20">
+      <c r="K52" s="17">
         <v>268949</v>
       </c>
-      <c r="L52" s="20">
+      <c r="L52" s="17">
         <v>271024</v>
       </c>
-      <c r="M52" s="26"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="28"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="34"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M52" s="23"/>
+      <c r="N52" s="24"/>
+      <c r="O52" s="25"/>
+      <c r="P52">
+        <v>364034</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="12"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="31"/>
-      <c r="N54" s="29"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="26"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
-      <c r="L55" s="18"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="18"/>
-      <c r="O55" s="32"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="29"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
-      <c r="M56" s="32"/>
-      <c r="N56" s="18"/>
-      <c r="O56" s="32"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="29"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="29"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="18"/>
-      <c r="M57" s="32"/>
-      <c r="N57" s="18"/>
-      <c r="O57" s="32"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="29"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="18"/>
-      <c r="M58" s="32"/>
-      <c r="N58" s="18"/>
-      <c r="O58" s="32"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="29"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="29"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="18"/>
-      <c r="M59" s="32"/>
-      <c r="N59" s="18"/>
-      <c r="O59" s="32"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="29"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="18"/>
-      <c r="L60" s="18"/>
-      <c r="M60" s="32"/>
-      <c r="N60" s="18"/>
-      <c r="O60" s="32"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="29"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="29"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
-      <c r="K61" s="18"/>
-      <c r="L61" s="18"/>
-      <c r="M61" s="32"/>
-      <c r="N61" s="18"/>
-      <c r="O61" s="32"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="29"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="29"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18"/>
-      <c r="K62" s="18"/>
-      <c r="L62" s="18"/>
-      <c r="M62" s="32"/>
-      <c r="N62" s="18"/>
-      <c r="O62" s="32"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="29"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="29"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18"/>
-      <c r="L63" s="18"/>
-      <c r="M63" s="32"/>
-      <c r="N63" s="18"/>
-      <c r="O63" s="32"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="29"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="29"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="18"/>
-      <c r="L64" s="18"/>
-      <c r="M64" s="32"/>
-      <c r="N64" s="18"/>
-      <c r="O64" s="32"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="29"/>
+      <c r="N64" s="15"/>
+      <c r="O64" s="29"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
@@ -2460,16 +2504,16 @@
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18"/>
-      <c r="K65" s="18"/>
-      <c r="L65" s="18"/>
-      <c r="M65" s="32"/>
-      <c r="N65" s="18"/>
-      <c r="O65" s="32"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="29"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="29"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
@@ -2477,16 +2521,16 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="18"/>
-      <c r="L66" s="18"/>
-      <c r="M66" s="32"/>
-      <c r="N66" s="18"/>
-      <c r="O66" s="32"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="29"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="29"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
@@ -2494,16 +2538,16 @@
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="18"/>
-      <c r="L67" s="18"/>
-      <c r="M67" s="32"/>
-      <c r="N67" s="18"/>
-      <c r="O67" s="32"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="29"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="29"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
@@ -2511,16 +2555,16 @@
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="18"/>
-      <c r="L68" s="18"/>
-      <c r="M68" s="32"/>
-      <c r="N68" s="18"/>
-      <c r="O68" s="32"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="29"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="29"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
@@ -2528,16 +2572,16 @@
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="18"/>
-      <c r="L69" s="18"/>
-      <c r="M69" s="32"/>
-      <c r="N69" s="18"/>
-      <c r="O69" s="32"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="29"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="29"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
@@ -2545,16 +2589,16 @@
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="18"/>
-      <c r="L70" s="18"/>
-      <c r="M70" s="32"/>
-      <c r="N70" s="18"/>
-      <c r="O70" s="32"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="29"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="29"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
@@ -2562,16 +2606,16 @@
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="18"/>
-      <c r="L71" s="18"/>
-      <c r="M71" s="32"/>
-      <c r="N71" s="18"/>
-      <c r="O71" s="32"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="15"/>
+      <c r="M71" s="29"/>
+      <c r="N71" s="15"/>
+      <c r="O71" s="29"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
@@ -2579,16 +2623,16 @@
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="18"/>
-      <c r="K72" s="18"/>
-      <c r="L72" s="18"/>
-      <c r="M72" s="32"/>
-      <c r="N72" s="18"/>
-      <c r="O72" s="32"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="29"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="29"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
@@ -2596,16 +2640,16 @@
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="18"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="18"/>
-      <c r="K73" s="18"/>
-      <c r="L73" s="18"/>
-      <c r="M73" s="32"/>
-      <c r="N73" s="18"/>
-      <c r="O73" s="32"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="29"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="29"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
